--- a/images_data.xlsx
+++ b/images_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4303" uniqueCount="81">
   <si>
     <t>Timestamp</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>Syria</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Barbados</t>
   </si>
 </sst>
 </file>
@@ -20896,6 +20902,4520 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>43842.702401030096</v>
+      </c>
+      <c r="B168" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="C168" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J168" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K168" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L168" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M168" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N168" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O168" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P168" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Q168" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R168" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S168" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T168" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="U168" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V168" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W168" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X168" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y168" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z168" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AA168" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB168" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AC168" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD168" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AE168" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF168" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AG168" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH168" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AI168" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ168" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AK168" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL168" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AM168" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN168" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>43842.81811280093</v>
+      </c>
+      <c r="B169" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C169" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J169" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K169" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L169" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M169" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N169" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O169" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P169" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Q169" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R169" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="S169" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T169" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="U169" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V169" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="W169" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X169" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y169" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z169" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA169" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB169" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AC169" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD169" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AE169" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF169" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AG169" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH169" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI169" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ169" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AK169" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL169" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AM169" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN169" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>43842.89455315973</v>
+      </c>
+      <c r="B170" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C170" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J170" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K170" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L170" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="M170" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N170" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="O170" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P170" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q170" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R170" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="S170" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T170" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U170" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V170" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="W170" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X170" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y170" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z170" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA170" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB170" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AC170" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD170" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AE170" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF170" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AG170" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH170" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AI170" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ170" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AK170" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL170" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AM170" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN170" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>43843.03150438657</v>
+      </c>
+      <c r="B171" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="C171" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J171" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L171" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M171" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N171" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="O171" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P171" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Q171" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R171" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="S171" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T171" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="U171" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V171" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="W171" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X171" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y171" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z171" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AA171" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB171" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AC171" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD171" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AE171" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF171" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AG171" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH171" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI171" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ171" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AK171" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL171" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AM171" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN171" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>43843.38194085648</v>
+      </c>
+      <c r="B172" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="C172" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J172" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K172" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L172" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M172" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N172" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="O172" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P172" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Q172" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R172" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S172" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T172" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U172" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V172" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="W172" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X172" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y172" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z172" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AA172" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB172" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AC172" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD172" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AE172" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF172" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AG172" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH172" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AI172" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ172" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AK172" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL172" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AM172" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN172" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>43843.410823750004</v>
+      </c>
+      <c r="B173" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="C173" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J173" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L173" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="M173" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N173" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O173" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P173" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Q173" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R173" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="S173" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T173" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="U173" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V173" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="W173" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X173" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y173" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z173" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AA173" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB173" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AC173" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD173" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AE173" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF173" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AG173" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH173" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI173" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ173" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AK173" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL173" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AM173" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN173" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>43843.42555990741</v>
+      </c>
+      <c r="B174" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C174" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J174" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K174" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L174" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="M174" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N174" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="O174" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P174" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Q174" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R174" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S174" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T174" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="U174" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V174" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="W174" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X174" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y174" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z174" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AA174" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB174" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AC174" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD174" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AE174" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF174" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AG174" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH174" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AI174" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ174" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AK174" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL174" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AM174" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN174" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>43843.42849769676</v>
+      </c>
+      <c r="B175" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C175" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I175" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J175" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K175" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L175" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M175" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N175" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O175" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P175" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Q175" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R175" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="S175" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T175" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U175" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V175" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="W175" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X175" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y175" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z175" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA175" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB175" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AC175" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD175" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AE175" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF175" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AG175" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH175" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AI175" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ175" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AK175" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL175" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AM175" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN175" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>43843.442079444445</v>
+      </c>
+      <c r="B176" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C176" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J176" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K176" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L176" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="M176" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N176" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O176" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P176" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Q176" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R176" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S176" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T176" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="U176" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V176" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W176" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X176" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y176" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z176" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AA176" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB176" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AC176" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD176" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AE176" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF176" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AG176" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH176" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AI176" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ176" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AK176" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL176" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AM176" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN176" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>43843.44675253472</v>
+      </c>
+      <c r="B177" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C177" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J177" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L177" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M177" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N177" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="O177" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P177" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Q177" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R177" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="S177" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T177" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="U177" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V177" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="W177" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X177" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y177" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z177" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA177" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB177" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AC177" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD177" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AE177" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF177" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AG177" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH177" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AI177" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ177" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AK177" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL177" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AM177" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN177" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>43843.46665234954</v>
+      </c>
+      <c r="B178" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C178" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J178" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K178" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L178" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="M178" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N178" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O178" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P178" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Q178" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R178" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S178" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T178" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="U178" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V178" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="W178" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X178" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Y178" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z178" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AA178" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB178" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AC178" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD178" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AE178" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF178" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AG178" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH178" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AI178" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ178" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AK178" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL178" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AM178" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN178" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>43843.46795431713</v>
+      </c>
+      <c r="B179" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C179" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J179" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L179" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M179" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N179" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="O179" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P179" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Q179" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R179" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="S179" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T179" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="U179" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V179" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="W179" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X179" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y179" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z179" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AA179" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB179" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AC179" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD179" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AE179" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF179" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AG179" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH179" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI179" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ179" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AK179" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL179" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AM179" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN179" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>43843.49186246528</v>
+      </c>
+      <c r="B180" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C180" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J180" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K180" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L180" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="M180" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N180" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O180" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P180" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Q180" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R180" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="S180" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T180" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="U180" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V180" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="W180" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X180" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y180" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z180" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA180" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB180" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AC180" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD180" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AE180" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF180" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AG180" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH180" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AI180" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ180" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AK180" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL180" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AM180" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN180" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>43843.50147766204</v>
+      </c>
+      <c r="B181" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C181" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J181" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L181" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M181" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N181" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O181" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P181" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q181" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R181" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S181" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T181" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="U181" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V181" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="W181" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X181" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y181" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z181" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA181" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB181" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AC181" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD181" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AE181" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF181" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AG181" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH181" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AI181" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ181" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AK181" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL181" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AM181" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN181" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>43843.51554740741</v>
+      </c>
+      <c r="B182" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C182" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J182" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K182" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L182" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M182" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N182" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O182" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P182" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Q182" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R182" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="S182" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T182" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U182" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V182" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W182" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X182" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y182" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z182" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AA182" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB182" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AC182" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD182" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AE182" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF182" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AG182" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH182" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI182" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ182" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AK182" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL182" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AM182" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN182" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>43843.521990486115</v>
+      </c>
+      <c r="B183" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="C183" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J183" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="K183" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L183" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M183" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N183" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="O183" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P183" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Q183" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R183" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S183" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T183" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="U183" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V183" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W183" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X183" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y183" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z183" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AA183" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB183" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AC183" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD183" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AE183" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF183" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AG183" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH183" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AI183" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ183" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AK183" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL183" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AM183" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN183" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>43843.52361708334</v>
+      </c>
+      <c r="B184" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="C184" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J184" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K184" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L184" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="M184" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N184" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="O184" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P184" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q184" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R184" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S184" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T184" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="U184" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V184" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W184" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X184" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y184" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z184" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AA184" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB184" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AC184" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD184" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AE184" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF184" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AG184" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH184" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AI184" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ184" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AK184" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL184" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AM184" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN184" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>43843.56315596065</v>
+      </c>
+      <c r="B185" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C185" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J185" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L185" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M185" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N185" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O185" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P185" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Q185" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R185" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="S185" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T185" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U185" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V185" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W185" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X185" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y185" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z185" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AA185" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB185" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AC185" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD185" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AE185" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF185" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AG185" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH185" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AI185" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ185" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AK185" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL185" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AM185" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN185" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>43843.56845651621</v>
+      </c>
+      <c r="B186" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="C186" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J186" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K186" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L186" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M186" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N186" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="O186" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P186" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Q186" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R186" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S186" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T186" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U186" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V186" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W186" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X186" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y186" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z186" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA186" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB186" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AC186" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD186" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AE186" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF186" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AG186" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH186" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AI186" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ186" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AK186" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL186" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AM186" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN186" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>43843.57489777778</v>
+      </c>
+      <c r="B187" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C187" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I187" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J187" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L187" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M187" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N187" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O187" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P187" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q187" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R187" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="S187" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T187" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="U187" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V187" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="W187" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X187" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y187" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z187" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AA187" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB187" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AC187" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD187" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AE187" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF187" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AG187" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH187" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AI187" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ187" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AK187" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL187" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AM187" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN187" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>43843.59336486111</v>
+      </c>
+      <c r="B188" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C188" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J188" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K188" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L188" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M188" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N188" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O188" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P188" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Q188" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R188" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S188" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T188" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U188" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V188" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="W188" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X188" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Y188" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z188" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA188" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB188" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AC188" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD188" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AE188" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF188" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AG188" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH188" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AI188" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ188" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AK188" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL188" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AM188" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN188" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>43843.626448090276</v>
+      </c>
+      <c r="B189" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C189" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J189" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L189" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="M189" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N189" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O189" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P189" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Q189" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R189" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="S189" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T189" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U189" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V189" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="W189" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X189" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y189" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z189" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AA189" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB189" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AC189" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD189" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AE189" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF189" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AG189" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH189" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AI189" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ189" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AK189" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL189" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AM189" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN189" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>43843.637726354165</v>
+      </c>
+      <c r="B190" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="C190" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J190" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K190" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L190" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="M190" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N190" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="O190" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P190" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Q190" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R190" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S190" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T190" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="U190" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V190" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="W190" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X190" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y190" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z190" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA190" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB190" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AC190" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD190" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AE190" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF190" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AG190" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH190" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AI190" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ190" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AK190" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL190" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AM190" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN190" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>43843.65232686343</v>
+      </c>
+      <c r="B191" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C191" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J191" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L191" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="M191" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N191" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O191" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P191" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Q191" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R191" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="S191" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T191" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U191" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V191" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="W191" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X191" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Y191" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z191" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AA191" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB191" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AC191" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD191" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AE191" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF191" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AG191" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH191" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AI191" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ191" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AK191" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL191" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AM191" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN191" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>43843.66185056713</v>
+      </c>
+      <c r="B192" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="C192" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J192" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K192" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L192" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M192" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N192" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O192" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P192" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Q192" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R192" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S192" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T192" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U192" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V192" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="W192" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X192" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y192" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z192" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA192" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB192" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AC192" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD192" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AE192" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF192" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AG192" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH192" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AI192" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ192" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AK192" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL192" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AM192" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN192" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>43843.71990390046</v>
+      </c>
+      <c r="B193" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="C193" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J193" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L193" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="M193" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N193" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O193" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P193" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q193" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R193" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="S193" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T193" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="U193" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V193" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="W193" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X193" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Y193" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z193" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA193" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB193" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AC193" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD193" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AE193" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF193" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AG193" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH193" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AI193" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ193" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AK193" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL193" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AM193" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN193" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>43843.73483071759</v>
+      </c>
+      <c r="B194" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C194" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J194" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K194" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L194" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M194" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N194" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O194" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P194" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Q194" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R194" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S194" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T194" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U194" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V194" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="W194" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X194" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y194" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z194" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AA194" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB194" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AC194" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD194" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AE194" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF194" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AG194" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH194" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AI194" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ194" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AK194" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL194" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AM194" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN194" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>43843.814537604165</v>
+      </c>
+      <c r="B195" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="C195" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J195" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K195" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L195" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M195" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N195" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="O195" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P195" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Q195" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R195" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S195" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T195" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="U195" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V195" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W195" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X195" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y195" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z195" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AA195" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB195" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AC195" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD195" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AE195" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF195" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AG195" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH195" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AI195" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ195" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AK195" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL195" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AM195" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN195" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>43843.846388425925</v>
+      </c>
+      <c r="B196" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="C196" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J196" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K196" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L196" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M196" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N196" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="O196" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P196" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Q196" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R196" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="S196" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T196" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="U196" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V196" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="W196" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X196" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y196" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z196" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AA196" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB196" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AC196" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD196" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AE196" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF196" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AG196" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH196" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI196" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ196" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AK196" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL196" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AM196" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN196" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>43843.904579305556</v>
+      </c>
+      <c r="B197" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C197" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J197" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="K197" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L197" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M197" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N197" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O197" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P197" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Q197" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R197" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="S197" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T197" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="U197" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V197" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W197" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X197" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y197" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z197" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AA197" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB197" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AC197" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD197" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AE197" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF197" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AG197" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH197" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AI197" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ197" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AK197" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL197" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AM197" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN197" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>43843.93270684028</v>
+      </c>
+      <c r="B198" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C198" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I198" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J198" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K198" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L198" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="M198" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N198" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O198" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P198" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Q198" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R198" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="S198" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T198" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U198" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V198" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="W198" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X198" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y198" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z198" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AA198" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB198" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AC198" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD198" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AE198" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF198" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AG198" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH198" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AI198" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ198" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AK198" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL198" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AM198" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN198" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>43843.93409383102</v>
+      </c>
+      <c r="B199" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C199" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I199" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J199" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K199" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L199" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M199" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N199" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O199" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P199" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q199" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R199" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S199" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T199" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U199" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V199" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W199" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X199" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y199" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z199" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AA199" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB199" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AC199" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD199" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AE199" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF199" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AG199" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH199" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AI199" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ199" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AK199" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL199" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AM199" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN199" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>43843.93810726852</v>
+      </c>
+      <c r="B200" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="C200" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J200" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K200" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L200" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M200" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N200" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="O200" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P200" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Q200" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R200" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="S200" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T200" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U200" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V200" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="W200" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X200" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y200" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z200" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA200" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB200" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AC200" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD200" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AE200" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF200" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AG200" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH200" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI200" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ200" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AK200" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL200" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AM200" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN200" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>43844.423157708334</v>
+      </c>
+      <c r="B201" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C201" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J201" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K201" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L201" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M201" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N201" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O201" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P201" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Q201" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R201" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S201" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T201" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="U201" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V201" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="W201" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X201" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="Y201" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z201" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AA201" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB201" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AC201" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD201" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AE201" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF201" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AG201" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH201" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AI201" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ201" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AK201" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL201" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AM201" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN201" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>43844.46227150463</v>
+      </c>
+      <c r="B202" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C202" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I202" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J202" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K202" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L202" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M202" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N202" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O202" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P202" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Q202" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R202" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="S202" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T202" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="U202" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V202" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W202" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X202" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y202" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z202" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AA202" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB202" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AC202" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD202" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AE202" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF202" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AG202" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH202" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI202" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ202" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AK202" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL202" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AM202" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN202" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>43844.50699706018</v>
+      </c>
+      <c r="B203" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C203" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I203" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J203" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K203" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L203" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M203" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N203" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="O203" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P203" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="Q203" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R203" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S203" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T203" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U203" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V203" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="W203" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X203" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y203" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z203" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AA203" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB203" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AC203" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD203" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AE203" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF203" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AG203" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH203" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AI203" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ203" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AK203" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL203" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AM203" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN203" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>43844.62591378472</v>
+      </c>
+      <c r="B204" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C204" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I204" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J204" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K204" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L204" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M204" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N204" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="O204" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P204" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q204" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R204" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="S204" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T204" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="U204" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V204" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W204" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X204" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="Y204" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z204" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA204" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB204" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AC204" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD204" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AE204" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF204" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AG204" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH204" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AI204" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ204" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AK204" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL204" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AM204" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN204" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/images_data.xlsx
+++ b/images_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4303" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="81">
   <si>
     <t>Timestamp</t>
   </si>
@@ -25416,6 +25416,128 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>43847.691497569445</v>
+      </c>
+      <c r="B205" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C205" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I205" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J205" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K205" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L205" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M205" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N205" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O205" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P205" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Q205" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R205" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="S205" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T205" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="U205" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V205" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="W205" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X205" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="Y205" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z205" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AA205" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB205" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AC205" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD205" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AE205" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF205" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AG205" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH205" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AI205" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ205" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AK205" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL205" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AM205" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN205" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
